--- a/sharebox/use.xlsx
+++ b/sharebox/use.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minyeong\Desktop\github\sharebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F35428-2832-45A1-B28D-0BF4F8DDED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8216B0F-669D-4506-849F-498BC2762D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E175750C-111F-479F-A17E-63650490C4F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>계획</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>식비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -253,6 +249,26 @@
   </si>
   <si>
     <t>저축목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥천국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든마트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1031,12 +1047,14 @@
       <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="12" width="10.8984375" customWidth="1"/>
+    <col min="2" max="9" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.8984375" customWidth="1"/>
     <col min="13" max="13" width="27.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29.296875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10.8984375" customWidth="1"/>
@@ -1081,7 +1099,7 @@
     <row r="2" spans="1:31" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12"/>
       <c r="B2" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1248,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>4</v>
@@ -1263,13 +1281,13 @@
         <v>15</v>
       </c>
       <c r="K6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="M6" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="10" t="s">
@@ -1285,7 +1303,7 @@
       </c>
       <c r="T6" s="8">
         <f>H10+M10+N10</f>
-        <v>1037742</v>
+        <v>1057322</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>32</v>
@@ -1384,7 +1402,7 @@
       </c>
       <c r="E8" s="8">
         <f>SUMIF($E$16:$E$33,E$6,$C$16:$C$33)+SUMIF($K$16:$K$33,E$6,$I$16:$I$33)</f>
-        <v>6000</v>
+        <v>25580</v>
       </c>
       <c r="F8" s="8">
         <f>SUMIF($E$16:$E$33,F$6,$C$16:$C$33)+SUMIF($K$16:$K$33,F$6,$I$16:$I$33)</f>
@@ -1462,7 +1480,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>394000</v>
+        <v>374420</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8">
@@ -1515,7 +1533,7 @@
       </c>
       <c r="T9" s="8">
         <f>T5-(T6+T7+T8)</f>
-        <v>1662258</v>
+        <v>1642678</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>30</v>
@@ -1544,7 +1562,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="20">
         <f>SUM(E8:H8)</f>
-        <v>28500</v>
+        <v>48080</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -1573,7 +1591,7 @@
       </c>
       <c r="T10" s="9">
         <f>T6/T5</f>
-        <v>0.25943549999999999</v>
+        <v>0.26433050000000002</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>31</v>
@@ -1609,14 +1627,14 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="12"/>
       <c r="S11" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" s="9">
         <f>T7/T5</f>
         <v>0.27500000000000002</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -1682,7 +1700,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T13" s="21">
         <v>0.5</v>
@@ -1800,23 +1818,31 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16" s="12"/>
       <c r="B16" s="2">
-        <v>45292</v>
-      </c>
-      <c r="C16" s="3">
-        <v>22500</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>45293</v>
+      </c>
+      <c r="C16" s="17">
+        <v>4500</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="2">
+        <v>45292</v>
+      </c>
+      <c r="I16" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="12"/>
@@ -1841,23 +1867,31 @@
     <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
       <c r="B17" s="2">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="C17" s="17">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="H17" s="2">
+        <v>45292</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1500</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="12"/>
@@ -1881,24 +1915,24 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
-      <c r="B18" s="2">
-        <v>45293</v>
-      </c>
-      <c r="C18" s="17">
-        <v>4500</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="19"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="H18" s="2">
+        <v>45293</v>
+      </c>
+      <c r="I18" s="17">
+        <v>10580</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="12"/>
@@ -1928,10 +1962,18 @@
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="H19" s="2">
+        <v>45294</v>
+      </c>
+      <c r="I19" s="17">
+        <v>4500</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="12"/>
@@ -1989,7 +2031,9 @@
     <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="12"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
@@ -3198,13 +3242,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>36</v>
@@ -3213,11 +3257,11 @@
         <v>15</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="10" t="s">
@@ -3658,7 +3702,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="12"/>
@@ -3699,7 +3743,7 @@
         <v>41</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="12"/>
